--- a/US/data/BOC/FTD/FTDE/UATPCSB_M_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/UATPCSB_M_historical.xlsx
@@ -2591,76 +2591,76 @@
         <v>-9888</v>
       </c>
       <c r="IT2" t="n">
-        <v>-11605</v>
+        <v>-11398</v>
       </c>
       <c r="IU2" t="n">
-        <v>-5252</v>
+        <v>-4905</v>
       </c>
       <c r="IV2" t="n">
-        <v>-10534</v>
+        <v>-10227</v>
       </c>
       <c r="IW2" t="n">
-        <v>-13815</v>
+        <v>-13548</v>
       </c>
       <c r="IX2" t="n">
-        <v>-16989</v>
+        <v>-16701</v>
       </c>
       <c r="IY2" t="n">
-        <v>-18922</v>
+        <v>-18661</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-17075</v>
+        <v>-16890</v>
       </c>
       <c r="JA2" t="n">
-        <v>-19012</v>
+        <v>-18824</v>
       </c>
       <c r="JB2" t="n">
-        <v>-18703</v>
+        <v>-18403</v>
       </c>
       <c r="JC2" t="n">
-        <v>-19393</v>
+        <v>-19153</v>
       </c>
       <c r="JD2" t="n">
-        <v>-21900</v>
+        <v>-21621</v>
       </c>
       <c r="JE2" t="n">
-        <v>-17981</v>
+        <v>-17801</v>
       </c>
       <c r="JF2" t="n">
-        <v>-15423</v>
+        <v>-15118</v>
       </c>
       <c r="JG2" t="n">
-        <v>-12764</v>
+        <v>-12772</v>
       </c>
       <c r="JH2" t="n">
-        <v>-15055</v>
+        <v>-14758</v>
       </c>
       <c r="JI2" t="n">
-        <v>-15146</v>
+        <v>-14891</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-15150</v>
+        <v>-15035</v>
       </c>
       <c r="JK2" t="n">
-        <v>-14719</v>
+        <v>-14865</v>
       </c>
       <c r="JL2" t="n">
-        <v>-14251</v>
+        <v>-14216</v>
       </c>
       <c r="JM2" t="n">
-        <v>-16074</v>
+        <v>-15996</v>
       </c>
       <c r="JN2" t="n">
-        <v>-19742</v>
+        <v>-19656</v>
       </c>
       <c r="JO2" t="n">
-        <v>-17282</v>
+        <v>-17242</v>
       </c>
       <c r="JP2" t="n">
-        <v>-21755</v>
+        <v>-21662</v>
       </c>
       <c r="JQ2" t="n">
-        <v>-19801</v>
+        <v>-19735</v>
       </c>
       <c r="JR2" t="n">
         <v>-19126</v>
@@ -2668,8 +2668,12 @@
       <c r="JS2" t="n">
         <v>-13422</v>
       </c>
-      <c r="JT2" t="inlineStr"/>
-      <c r="JU2" t="inlineStr"/>
+      <c r="JT2" t="n">
+        <v>-23307</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>-18295</v>
+      </c>
       <c r="JV2" t="inlineStr"/>
       <c r="JW2" t="inlineStr"/>
       <c r="JX2" t="inlineStr"/>
@@ -3455,76 +3459,76 @@
         <v>32994</v>
       </c>
       <c r="IT3" t="n">
-        <v>27533</v>
+        <v>27698</v>
       </c>
       <c r="IU3" t="n">
-        <v>27578</v>
+        <v>27868</v>
       </c>
       <c r="IV3" t="n">
-        <v>29485</v>
+        <v>29675</v>
       </c>
       <c r="IW3" t="n">
-        <v>21235</v>
+        <v>21456</v>
       </c>
       <c r="IX3" t="n">
-        <v>20201</v>
+        <v>20438</v>
       </c>
       <c r="IY3" t="n">
-        <v>23451</v>
+        <v>23660</v>
       </c>
       <c r="IZ3" t="n">
-        <v>24408</v>
+        <v>24573</v>
       </c>
       <c r="JA3" t="n">
-        <v>23151</v>
+        <v>23315</v>
       </c>
       <c r="JB3" t="n">
-        <v>24302</v>
+        <v>24516</v>
       </c>
       <c r="JC3" t="n">
-        <v>26870</v>
+        <v>27075</v>
       </c>
       <c r="JD3" t="n">
-        <v>25035</v>
+        <v>25228</v>
       </c>
       <c r="JE3" t="n">
-        <v>27532</v>
+        <v>27665</v>
       </c>
       <c r="JF3" t="n">
-        <v>25809</v>
+        <v>26042</v>
       </c>
       <c r="JG3" t="n">
-        <v>23070</v>
+        <v>23038</v>
       </c>
       <c r="JH3" t="n">
-        <v>29399</v>
+        <v>29553</v>
       </c>
       <c r="JI3" t="n">
-        <v>28050</v>
+        <v>28273</v>
       </c>
       <c r="JJ3" t="n">
-        <v>27922</v>
+        <v>27990</v>
       </c>
       <c r="JK3" t="n">
-        <v>32023</v>
+        <v>31857</v>
       </c>
       <c r="JL3" t="n">
-        <v>30605</v>
+        <v>30617</v>
       </c>
       <c r="JM3" t="n">
-        <v>29489</v>
+        <v>29551</v>
       </c>
       <c r="JN3" t="n">
-        <v>30762</v>
+        <v>30829</v>
       </c>
       <c r="JO3" t="n">
-        <v>34263</v>
+        <v>34211</v>
       </c>
       <c r="JP3" t="n">
-        <v>30763</v>
+        <v>30838</v>
       </c>
       <c r="JQ3" t="n">
-        <v>34463</v>
+        <v>34495</v>
       </c>
       <c r="JR3" t="n">
         <v>29978</v>
@@ -3532,8 +3536,12 @@
       <c r="JS3" t="n">
         <v>29016</v>
       </c>
-      <c r="JT3" t="inlineStr"/>
-      <c r="JU3" t="inlineStr"/>
+      <c r="JT3" t="n">
+        <v>33405</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>31474</v>
+      </c>
       <c r="JV3" t="inlineStr"/>
       <c r="JW3" t="inlineStr"/>
       <c r="JX3" t="inlineStr"/>
@@ -4319,76 +4327,76 @@
         <v>42883</v>
       </c>
       <c r="IT4" t="n">
-        <v>39138</v>
+        <v>39096</v>
       </c>
       <c r="IU4" t="n">
-        <v>32830</v>
+        <v>32774</v>
       </c>
       <c r="IV4" t="n">
-        <v>40018</v>
+        <v>39903</v>
       </c>
       <c r="IW4" t="n">
-        <v>35050</v>
+        <v>35004</v>
       </c>
       <c r="IX4" t="n">
-        <v>37190</v>
+        <v>37138</v>
       </c>
       <c r="IY4" t="n">
-        <v>42374</v>
+        <v>42321</v>
       </c>
       <c r="IZ4" t="n">
-        <v>41483</v>
+        <v>41463</v>
       </c>
       <c r="JA4" t="n">
-        <v>42163</v>
+        <v>42139</v>
       </c>
       <c r="JB4" t="n">
-        <v>43005</v>
+        <v>42919</v>
       </c>
       <c r="JC4" t="n">
-        <v>46263</v>
+        <v>46228</v>
       </c>
       <c r="JD4" t="n">
-        <v>46935</v>
+        <v>46848</v>
       </c>
       <c r="JE4" t="n">
-        <v>45513</v>
+        <v>45466</v>
       </c>
       <c r="JF4" t="n">
-        <v>41231</v>
+        <v>41160</v>
       </c>
       <c r="JG4" t="n">
-        <v>35834</v>
+        <v>35810</v>
       </c>
       <c r="JH4" t="n">
-        <v>44454</v>
+        <v>44311</v>
       </c>
       <c r="JI4" t="n">
-        <v>43196</v>
+        <v>43165</v>
       </c>
       <c r="JJ4" t="n">
-        <v>43072</v>
+        <v>43024</v>
       </c>
       <c r="JK4" t="n">
-        <v>46743</v>
+        <v>46722</v>
       </c>
       <c r="JL4" t="n">
-        <v>44857</v>
+        <v>44832</v>
       </c>
       <c r="JM4" t="n">
-        <v>45563</v>
+        <v>45547</v>
       </c>
       <c r="JN4" t="n">
-        <v>50504</v>
+        <v>50485</v>
       </c>
       <c r="JO4" t="n">
-        <v>51544</v>
+        <v>51452</v>
       </c>
       <c r="JP4" t="n">
-        <v>52518</v>
+        <v>52500</v>
       </c>
       <c r="JQ4" t="n">
-        <v>54264</v>
+        <v>54231</v>
       </c>
       <c r="JR4" t="n">
         <v>49105</v>
@@ -4396,8 +4404,12 @@
       <c r="JS4" t="n">
         <v>42438</v>
       </c>
-      <c r="JT4" t="inlineStr"/>
-      <c r="JU4" t="inlineStr"/>
+      <c r="JT4" t="n">
+        <v>56713</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>49769</v>
+      </c>
       <c r="JV4" t="inlineStr"/>
       <c r="JW4" t="inlineStr"/>
       <c r="JX4" t="inlineStr"/>
